--- a/backend/uploads/template.xlsx
+++ b/backend/uploads/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyek\xisco\again\ocrjasamarga\backend\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyek\xisco\again\again\ocrjasamarga\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F13189C-B65C-42E9-9738-41A08DD600DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27559C-98A4-4CCC-B4FF-06AAB18FF8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="0" windowWidth="11712" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patok" sheetId="2" r:id="rId1"/>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,20 +130,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,40 +151,53 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Trebuchet MS"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -529,17 +542,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -583,6 +590,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,32 +647,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,8 +983,8 @@
   </sheetPr>
   <dimension ref="B2:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -991,65 +1004,65 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="2"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="21" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="3"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="4"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="20" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1058,34 +1071,34 @@
         <v>6</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="J6" s="23"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="32.4" customHeight="1">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1101,19 +1114,19 @@
       <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="2:12" ht="189" customHeight="1">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="25"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="23"/>
       <c r="L9"/>
     </row>
     <row r="10" spans="2:12" ht="189" customHeight="1">
@@ -1121,11 +1134,11 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="25"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="23"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="2:12" ht="189" customHeight="1">
@@ -1133,11 +1146,11 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="25"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="23"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="2:12" ht="187.5" customHeight="1">
@@ -1145,222 +1158,217 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="25"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="2:12" ht="195" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="25"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:12" ht="195" customHeight="1">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="25"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="2:12" ht="195" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="25"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="2:12" ht="195" customHeight="1">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="25"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="26"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="30" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="30" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="36"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="30" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="30" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="2:19" ht="6" customHeight="1">
       <c r="B27" s="4"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="24"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
     </row>
     <row r="33" spans="18:19">
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
     </row>
     <row r="34" spans="18:19">
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
     </row>
     <row r="35" spans="18:19">
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
     </row>
     <row r="36" spans="18:19">
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
     </row>
     <row r="37" spans="18:19">
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
     </row>
     <row r="38" spans="18:19">
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R37:S37"/>
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -1376,6 +1384,11 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R37:S37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.59055118110236204" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
@@ -1385,26 +1398,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f114c267-df7d-40bd-8267-97315d602495" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d9281f6a-0578-4cde-b893-ed46a138925b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumen" ma:contentTypeID="0x01010063ECD73D1768B14D9821088E0600D6DE" ma:contentTypeVersion="15" ma:contentTypeDescription="Buat sebuah dokumen baru." ma:contentTypeScope="" ma:versionID="b7158878404cf403ef5b1fe8a062929b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d9281f6a-0578-4cde-b893-ed46a138925b" xmlns:ns3="f114c267-df7d-40bd-8267-97315d602495" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e2a201d13ac599ba013dcbaeec218d7" ns2:_="" ns3:_="">
     <xsd:import namespace="d9281f6a-0578-4cde-b893-ed46a138925b"/>
@@ -1641,8 +1634,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f114c267-df7d-40bd-8267-97315d602495" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d9281f6a-0578-4cde-b893-ed46a138925b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A7461B-F34D-4A72-9B92-E7D960059D27}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D2B2EB-7523-426C-A88E-908FC98DA213}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1654,7 +1667,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D2B2EB-7523-426C-A88E-908FC98DA213}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3A7461B-F34D-4A72-9B92-E7D960059D27}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/backend/uploads/template.xlsx
+++ b/backend/uploads/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyek\xisco\again\again\ocrjasamarga\backend\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyek\xisco\dokumentasi\ocrjasamarga\backend\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C27559C-98A4-4CCC-B4FF-06AAB18FF8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8F55C-C250-413D-8DB4-0980A97C4563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Patok" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Patok!$B$2:$J$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Patok!$B$2:$J$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Patok!$7:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -590,6 +590,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,42 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,10 +981,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:S38"/>
+  <dimension ref="B2:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1004,14 +1004,14 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" s="2"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="19" t="s">
         <v>1</v>
       </c>
@@ -1021,12 +1021,12 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="3"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1036,14 +1036,14 @@
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3"/>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1053,12 +1053,12 @@
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="18" t="s">
         <v>5</v>
       </c>
@@ -1074,31 +1074,31 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="32.4" customHeight="1">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -1114,17 +1114,17 @@
       <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="2:12" ht="189" customHeight="1">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="47"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="47"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="11"/>
       <c r="J9" s="23"/>
       <c r="L9"/>
@@ -1134,9 +1134,9 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="47"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="47"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="11"/>
       <c r="J10" s="23"/>
       <c r="L10"/>
@@ -1146,32 +1146,33 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="48"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="48"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="11"/>
       <c r="J11" s="23"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="2:12" ht="187.5" customHeight="1">
+    <row r="12" spans="2:12" ht="189" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="48"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="48"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="11"/>
       <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="2:12" ht="195" customHeight="1">
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="2:12" ht="187.5" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="48"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="11"/>
       <c r="J13" s="23"/>
     </row>
@@ -1182,7 +1183,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="48"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="11"/>
       <c r="J14" s="23"/>
     </row>
@@ -1193,7 +1194,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="48"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="11"/>
       <c r="J15" s="23"/>
     </row>
@@ -1204,191 +1205,224 @@
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="48"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="11"/>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="44" t="s">
+    <row r="17" spans="2:10" ht="195" customHeight="1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" ht="195" customHeight="1">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" ht="195" customHeight="1">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="43"/>
-    </row>
-    <row r="21" spans="2:19">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="2:19">
+      <c r="H21" s="16"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="H22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="27"/>
-    </row>
-    <row r="24" spans="2:19">
+      <c r="H23" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="2:19">
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="43"/>
-    </row>
-    <row r="26" spans="2:19">
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="2:19" ht="6" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-    </row>
-    <row r="33" spans="18:19">
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-    </row>
-    <row r="34" spans="18:19">
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="2:10" ht="6" customHeight="1">
+      <c r="B30" s="4"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="35" spans="18:19">
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
     </row>
     <row r="36" spans="18:19">
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
     </row>
     <row r="37" spans="18:19">
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
     </row>
     <row r="38" spans="18:19">
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+    </row>
+    <row r="39" spans="18:19">
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+    </row>
+    <row r="40" spans="18:19">
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+    </row>
+    <row r="41" spans="18:19">
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="R36:S36"/>
     <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R41:S41"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
-    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="R35:S35"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.59055118110236204" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
@@ -1398,6 +1432,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumen" ma:contentTypeID="0x01010063ECD73D1768B14D9821088E0600D6DE" ma:contentTypeVersion="15" ma:contentTypeDescription="Buat sebuah dokumen baru." ma:contentTypeScope="" ma:versionID="b7158878404cf403ef5b1fe8a062929b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d9281f6a-0578-4cde-b893-ed46a138925b" xmlns:ns3="f114c267-df7d-40bd-8267-97315d602495" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e2a201d13ac599ba013dcbaeec218d7" ns2:_="" ns3:_="">
     <xsd:import namespace="d9281f6a-0578-4cde-b893-ed46a138925b"/>
@@ -1634,15 +1677,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1655,13 +1689,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D2B2EB-7523-426C-A88E-908FC98DA213}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D203189-13AF-4E72-A583-96AE7E80FF64}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D203189-13AF-4E72-A583-96AE7E80FF64}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41D2B2EB-7523-426C-A88E-908FC98DA213}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
